--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3766.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3766.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3766</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Daniel Trevor Christian</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3371</t>
+          <t>3371</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3377</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3380</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3384</t>
+          <t>3384</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3386</t>
+          <t>3386</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3389</t>
+          <t>3389</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3391</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3392</t>
+          <t>3392</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3393</t>
+          <t>3393</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3398</t>
+          <t>3398</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1232,7 +1297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3439</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1284,7 +1349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3441</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1336,7 +1401,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3443</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1376,7 +1441,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>19/01/2014</t>
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1476,7 +1540,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>26/07/2021</t>
@@ -1484,7 +1547,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4486</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1523,7 +1586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1545,7 +1608,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1582,7 +1645,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3367</t>
+          <t>3367</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1619,7 +1682,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3371</t>
+          <t>3371</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1656,7 +1719,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3373</t>
+          <t>3373</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1693,7 +1756,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3377</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1730,7 +1793,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3380</t>
+          <t>3380</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1767,7 +1830,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3384</t>
+          <t>3384</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1804,7 +1867,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3386</t>
+          <t>3386</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1841,7 +1904,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3389</t>
+          <t>3389</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1878,7 +1941,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3391</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1915,7 +1978,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3392</t>
+          <t>3392</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1952,7 +2015,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3393</t>
+          <t>3393</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1989,7 +2052,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3398</t>
+          <t>3398</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2026,7 +2089,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3400</t>
+          <t>3400</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2063,7 +2126,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2100,7 +2163,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3439</t>
+          <t>3439</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2137,7 +2200,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3441</t>
+          <t>3441</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2174,7 +2237,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3443</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2211,7 +2274,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3602</t>
+          <t>3602</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2248,7 +2311,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3606</t>
+          <t>3606</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2274,6 +2337,589 @@
       <c r="G20" t="inlineStr">
         <is>
           <t>1/15</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>7.87%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3371</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3373</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3377</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>7</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.80%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3380</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10.42%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3384</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.14%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3386</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>9.52%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3389</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3.12%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3392</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.48%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3393</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>8.23%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3398</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3400</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3.90%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3402</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>7</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5.45%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3439</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.51%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3441</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>7.26%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3443</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0.80%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3602</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3606</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3766.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3766.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
